--- a/grid_contents.xlsx
+++ b/grid_contents.xlsx
@@ -430,63 +430,63 @@
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [265, 'ARMSTRONG', 'Krasko', 'Kuba', 'POL', 'Gelding', 7, 0]}</t>
+          <t>{'type': 'horse', 'data': [247, 'AISHA OF HERITAGE Z', 'Majka', 'Lucja', 'POL', 'Mare', 1, 0]}</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [82, 'ARIA', 'Muraczewski', 'Jacek', 'POL', 'Mare', 3, 0]}</t>
+          <t>{'type': 'horse', 'data': [284, 'ARMANI GPH Z', 'Pawlicka', 'Dajana', 'POL', 'Stallion', 6, 0]}</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [137, 'BILLY ICEBURG', 'Krehl', 'Steffen', 'GER', 'Gelding', 17, 1]}</t>
+          <t>{'type': 'horse', 'data': [265, 'ARMSTRONG', 'Krasko', 'Kuba', 'POL', 'Gelding', 7, 0]}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [182, "ALVISTO VAN'T BERGERVEN Z", 'Waclawik', 'Marek', 'POL', 'Gelding', 2, 0]}</t>
+          <t>{'type': 'healing_box'}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [284, 'ARMANI GPH Z', 'Pawlicka', 'Dajana', 'POL', 'Stallion', 6, 0]}</t>
+          <t>{'type': 'horse', 'data': [17, 'BEBE', 'Makarauskiene', 'Elena', 'LTU', 'Mare', 15, 1]}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [17, 'BEBE', 'Makarauskiene', 'Elena', 'LTU', 'Mare', 15, 1]}</t>
+          <t>{'type': 'horse', 'data': [159, 'ANDORA', 'Swierczynska', 'Tola', 'POL', 'Mare', 3, 0]}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [206, 'BELLEZA', 'Respondek', 'Martin', 'GER', 'Mare', 16, 1]}</t>
+          <t>{'type': 'horse', 'data': [182, "ALVISTO VAN'T BERGERVEN Z", 'Waclawik', 'Marek', 'POL', 'Gelding', 2, 0]}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [247, 'AISHA OF HERITAGE Z', 'Majka', 'Lucja', 'POL', 'Mare', 1, 0]}</t>
+          <t>{'type': 'horse', 'data': [206, 'BELLEZA', 'Respondek', 'Martin', 'GER', 'Mare', 16, 1]}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [143, 'ATTENTION Z', 'Seppälä', 'Jasmin', 'FIN', 'Mare', 8, 0]}</t>
+          <t>{'type': 'horse', 'data': [342, 'BAZOOKA JOE', 'Petrovas', 'Andrius', 'LTU', 'Gelding', 14, 1]}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [342, 'BAZOOKA JOE', 'Petrovas', 'Andrius', 'LTU', 'Gelding', 14, 1]}</t>
+          <t>{'type': 'horse', 'data': [184, 'AMBER', 'Waclawik', 'Marek', 'POL', 'Mare', 2, 0]}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -499,71 +499,71 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [153, 'BAGHERA', 'Troszczynski', 'Lukasz', 'POL', 'Stallion', 10, 0]}</t>
+          <t>{'type': 'horse', 'data': [137, 'BILLY ICEBURG', 'Krehl', 'Steffen', 'GER', 'Gelding', 17, 1]}</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'type': 'healing_box'}</t>
+          <t>{'type': 'horse', 'data': [260, 'BASTION II', 'Tarasek', 'Krzysztof', 'POL', 'Gelding', 13, 0]}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [260, 'BASTION II', 'Tarasek', 'Krzysztof', 'POL', 'Gelding', 13, 0]}</t>
+          <t>{'type': 'horse', 'data': [116, 'AZUR', 'Piszczek', 'Marta', 'POL', 'Stallion', 9, 0]}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [31, 'BIPEGGIO', 'Peszek', 'Julia', 'POL', 'Stallion', 18, 0]}</t>
+          <t>{'type': 'antidoping_box'}</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{'type': 'horse', 'data': [328, 'BALOUKATO', 'Skrzyczynski', 'Filip', 'POL', 'Stallion', 11, 0]}</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [116, 'AZUR', 'Piszczek', 'Marta', 'POL', 'Stallion', 9, 0]}</t>
+          <t>{'type': 'horse', 'data': [121, 'BARBORKA', 'Hana', 'Zuzanna', 'POL', 'Mare', 12, 0]}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [121, 'BARBORKA', 'Hana', 'Zuzanna', 'POL', 'Mare', 12, 0]}</t>
+          <t>{'type': 'horse', 'data': [143, 'ATTENTION Z', 'Seppälä', 'Jasmin', 'FIN', 'Mare', 8, 0]}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [159, 'ANDORA', 'Swierczynska', 'Tola', 'POL', 'Mare', 3, 0]}</t>
+          <t>{'type': 'healing_box'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'type': 'healing_box'}</t>
+          <t>{'type': 'horse', 'data': [31, 'BIPEGGIO', 'Peszek', 'Julia', 'POL', 'Stallion', 18, 0]}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'type': 'antidoping_box'}</t>
+          <t>{'type': 'horse', 'data': [328, 'BALOUKATO', 'Skrzyczynski', 'Filip', 'POL', 'Stallion', 11, 0]}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [153, 'BAGHERA', 'Troszczynski', 'Lukasz', 'POL', 'Stallion', 10, 0]}</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [184, 'AMBER', 'Waclawik', 'Marek', 'POL', 'Mare', 2, 0]}</t>
+          <t>{'type': 'horse', 'data': [82, 'ARIA', 'Muraczewski', 'Jacek', 'POL', 'Mare', 3, 0]}</t>
         </is>
       </c>
     </row>

--- a/grid_contents.xlsx
+++ b/grid_contents.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,115 +424,119 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{'type': 'antidoping_box'}</t>
+          <t>{'type': 'horse', 'data': [4, 'CAROLUS', 'Cichorek', 'Zuzanna', 'POL', 'Stallion', 13, 0]}</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [247, 'AISHA OF HERITAGE Z', 'Majka', 'Lucja', 'POL', 'Mare', 1, 0]}</t>
+          <t>{'type': 'horse', 'data': [310, 'NARDONNAY', 'Ciszek - Lewicka', 'Malgorzata', 'POL', 'Stallion', 326, 0]}</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [284, 'ARMANI GPH Z', 'Pawlicka', 'Dajana', 'POL', 'Stallion', 6, 0]}</t>
+          <t>{'type': 'antidoping_box'}</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [265, 'ARMSTRONG', 'Krasko', 'Kuba', 'POL', 'Gelding', 7, 0]}</t>
+          <t>{'type': 'antidoping_box'}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'type': 'healing_box'}</t>
+          <t>{'type': 'horse', 'data': [42, 'CHICKA BAY', 'Cieslak', 'Szymon', 'POL', 'Mare', 20, 0]}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [17, 'BEBE', 'Makarauskiene', 'Elena', 'LTU', 'Mare', 15, 1]}</t>
+          <t>{'type': 'horse', 'data': [168, 'DAISY', 'Ciszek - Lewicka', 'Malgorzata', 'POL', 'Mare', 158, 0]}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [159, 'ANDORA', 'Swierczynska', 'Tola', 'POL', 'Mare', 3, 0]}</t>
+          <t>{'type': 'horse', 'data': [120, 'IELVE', 'Dahlke-Burda', 'Agata', 'POL', 'Mare', 193, 0]}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [182, "ALVISTO VAN'T BERGERVEN Z", 'Waclawik', 'Marek', 'POL', 'Gelding', 2, 0]}</t>
+          <t>{'type': 'healing_box'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [206, 'BELLEZA', 'Respondek', 'Martin', 'GER', 'Mare', 16, 1]}</t>
+          <t>{'type': 'horse', 'data': [280, 'CHACCARTOON W', 'Celmerowska', 'Alina', 'POL', 'Gelding', 284, 0]}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [342, 'BAZOOKA JOE', 'Petrovas', 'Andrius', 'LTU', 'Gelding', 14, 1]}</t>
+          <t>{'type': 'horse', 'data': [147, 'CASHMERE', 'Conredel', 'Robert', 'GER', 'Stallion', 125, 0]}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [184, 'AMBER', 'Waclawik', 'Marek', 'POL', 'Mare', 2, 0]}</t>
+          <t>{'type': 'horse', 'data': [106, 'LUCKY LUKE N', 'Depta', 'Amelia', 'POL', 'Gelding', 65, 0]}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [324, 'ANGEL DI MARIA', 'Strzalkowski', 'Antoni', 'POL', 'Gelding', 3, 0]}</t>
+          <t>{'type': 'horse', 'data': [15, 'HOLLYWOOD', 'Baba', 'Amelia', 'POL', 'Stallion', 41, 0]}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [137, 'BILLY ICEBURG', 'Krehl', 'Steffen', 'GER', 'Gelding', 17, 1]}</t>
+          <t>{'type': 'horse', 'data': [5, 'DIANTUS S', 'Celmerowska', 'Alina', 'POL', 'Gelding', 28, 0]}</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [260, 'BASTION II', 'Tarasek', 'Krzysztof', 'POL', 'Gelding', 13, 0]}</t>
+          <t>{'type': 'horse', 'data': [32, 'SALVANO 10', 'Conredel', 'Saskia', 'GER', 'Gelding', 92, 0]}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [116, 'AZUR', 'Piszczek', 'Marta', 'POL', 'Stallion', 9, 0]}</t>
+          <t>{'type': 'horse', 'data': [213, 'KYNAN S', 'Dahlke', 'Wojciech', 'POL', 'Gelding', 214, 0]}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'type': 'antidoping_box'}</t>
+          <t>{'type': 'horse', 'data': [72, 'HASALA', 'Bobik', 'Jan', 'POL', 'Mare', 37, 1]}</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [221, 'E.BONDURANT SLEDGE', 'Butcher', 'Ivona', 'CZE', 'Gelding', 170, 0]}</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [121, 'BARBORKA', 'Hana', 'Zuzanna', 'POL', 'Mare', 12, 0]}</t>
+          <t>{'type': 'horse', 'data': [282, 'CASARES DE SEMILLY', 'Depta', 'Amelia', 'POL', 'Gelding', 279, 0]}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [143, 'ATTENTION Z', 'Seppälä', 'Jasmin', 'FIN', 'Mare', 8, 0]}</t>
+          <t>{'type': 'horse', 'data': [146, 'SIXPACK 11', 'Conredel', 'Robert', 'GER', 'Stallion', 255, 0]}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -545,27 +549,179 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [31, 'BIPEGGIO', 'Peszek', 'Julia', 'POL', 'Stallion', 18, 0]}</t>
+          <t>{'type': 'horse', 'data': [83, "IT'S A LADY JVH Z", 'Butcher', 'Ivona', 'CZE', 'Mare', 45, 0]}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [328, 'BALOUKATO', 'Skrzyczynski', 'Filip', 'POL', 'Stallion', 11, 0]}</t>
+          <t>{'type': 'horse', 'data': [79, 'MARIE-BELLA', 'Bukowska', 'Zuzanna', 'POL', 'Mare', 160, 0]}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [153, 'BAGHERA', 'Troszczynski', 'Lukasz', 'POL', 'Stallion', 10, 0]}</t>
+          <t>{'type': 'horse', 'data': [122, 'IVAR VDL', 'Depta', 'Amelia', 'POL', 'Gelding', 198, 0]}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'type': 'horse', 'data': [82, 'ARIA', 'Muraczewski', 'Jacek', 'POL', 'Mare', 3, 0]}</t>
-        </is>
-      </c>
+          <t>{'type': 'horse', 'data': [73, 'HERONA', 'Bobik', 'Jan', 'POL', 'Mare', 40, 1]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [28, 'DONNA FREIMINKA STS Z', 'Budzynska', 'Oliwia', 'POL', 'Mare', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [239, 'KALIFA SRH', 'Bockowska', 'Nadia', 'POL', 'Mare', 205, 0]}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [198, 'CZUMI GR', 'Bobik', 'Jan', 'POL', 'Stallion', 156, 1]}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [240, 'MYCATOKI VAN HET GEVAHOF', 'Bockowska', 'Nadia', 'POL', 'Mare', 234, 0]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [27, "CALERIME VAN'T HULGENRODE", 'Budzynska', 'Oliwia', 'POL', 'Mare', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [78, 'UCCELLA Z', 'Bukowska', 'Zuzanna', 'POL', 'Mare', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [200, 'OLE', 'Bobik', 'Jan', 'POL', 'Stallion', 242, 1]}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [242, 'MERLIN VD PONDEROSA', 'Bockowska', 'Olivia', 'POL', 'Gelding', 232, 0]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [348, 'DUC 123 Z', 'Brzóska', 'Lukasz', 'POL', 'Stallion', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [241, 'CHACCO ONE', 'Bockowska', 'Olivia', 'POL', 'Gelding', 134, 0]}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [321, 'CETA', 'Bobik', 'Jan', 'POL', 'Mare', 283, 1]}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [36, 'KLARKSON', 'Bogisch', 'Wencke', 'GER', 'Gelding', 51, 0]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [113, 'QUICKLENSKY', 'Brzóska', 'Lukasz', 'POL', 'Gelding', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [233, 'CLAUDIA', 'Brzozowska', 'Aleksandra', 'POL', 'Mare', 143, 0]}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [199, 'HAVERDY', 'Bobik', 'Jan', 'POL', 'Stallion', 188, 1]}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [177, 'MALU', 'Bregenzer', 'Jan', 'GER', 'Mare', 231, 0]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [112, 'JERNILLA', 'Brzóska', 'Lukasz', 'POL', 'Mare', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [118, 'CATALINA', 'Burgyte', 'Laura', 'LTU', 'Mare', 161, 0]}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [119, 'NEED FOR SPEED', 'Burgyte', 'Laura', 'LTU', 'Stallion', 238, 0]}</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'type': 'horse', 'data': [114, "DARK'ANN", 'Brzóska', 'Lukasz', 'POL', 'Stallion', 160, 0]}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
